--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -1,73 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project-Mercury\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0161DDF0-4BD1-4DD2-99F0-DAA93A13A452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
-  <si>
-    <t>2024-06-28</t>
-  </si>
-  <si>
-    <t>INFN</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>(buyout)</t>
-  </si>
-  <si>
-    <t>CMND</t>
-  </si>
-  <si>
-    <t>COSM</t>
-  </si>
-  <si>
-    <t>CARM</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>ECDA</t>
-  </si>
-  <si>
-    <t>earnings</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,137 +439,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col width="10.42578125" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>INFN</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
         <v>6.22</v>
       </c>
-      <c r="D1">
+      <c r="D1" t="n">
         <v>6.24</v>
       </c>
-      <c r="E1">
-        <v>0.32154340836013612</v>
-      </c>
-      <c r="F1">
+      <c r="E1" t="n">
+        <v>0.3215434083601361</v>
+      </c>
+      <c r="F1" t="n">
         <v>100.3215434083601</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>(buyout)</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CMND</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>1.59</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>1.62</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>1.88679245283019</v>
       </c>
-      <c r="F2">
-        <v>101.88679245283021</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
+      <c r="F2" t="n">
+        <v>101.8867924528302</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>COSM</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1.22</v>
       </c>
-      <c r="D3">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="E3">
-        <v>-8.1967213114754003</v>
-      </c>
-      <c r="F3">
+      <c r="D3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-8.1967213114754</v>
+      </c>
+      <c r="F3" t="n">
         <v>91.8032786885246</v>
       </c>
-      <c r="G3" t="s">
-        <v>2</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CARM</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>1.64</v>
       </c>
-      <c r="D4">
-        <v>1.7210000000000001</v>
-      </c>
-      <c r="E4">
-        <v>4.9390243902439126</v>
-      </c>
-      <c r="F4">
+      <c r="D4" t="n">
+        <v>1.721</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.939024390243913</v>
+      </c>
+      <c r="F4" t="n">
         <v>104.9390243902439</v>
       </c>
-      <c r="G4" t="s">
-        <v>7</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECDA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>1.22</v>
       </c>
-      <c r="D5">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="E5">
-        <v>-8.1967213114754003</v>
-      </c>
-      <c r="F5">
+      <c r="D5" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-8.1967213114754</v>
+      </c>
+      <c r="F5" t="n">
         <v>91.8032786885246</v>
       </c>
-      <c r="G5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>earnings</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>173.45</v>
+      </c>
+      <c r="D6" t="n">
+        <v>173.81</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2075526088209937</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100.207552608821</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CSLR</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-15.49295774647887</v>
+      </c>
+      <c r="F7" t="n">
+        <v>84.50704225352113</v>
       </c>
     </row>
   </sheetData>

--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
@@ -658,6 +658,774 @@
         <v>84.50704225352113</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RDZN</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-3.286384976525814</v>
+      </c>
+      <c r="F8" t="n">
+        <v>96.71361502347419</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>VS</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.362204724409451</v>
+      </c>
+      <c r="F9" t="n">
+        <v>102.3622047244095</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GMM</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>RDZN</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-3.286384976525814</v>
+      </c>
+      <c r="F11" t="n">
+        <v>96.71361502347419</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>VS</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.362204724409451</v>
+      </c>
+      <c r="F12" t="n">
+        <v>102.3622047244095</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GMM</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>RDZN</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-3.286384976525814</v>
+      </c>
+      <c r="F14" t="n">
+        <v>96.71361502347419</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>VS</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.362204724409451</v>
+      </c>
+      <c r="F15" t="n">
+        <v>102.3622047244095</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GMM</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>RDZN</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-3.286384976525814</v>
+      </c>
+      <c r="F17" t="n">
+        <v>96.71361502347419</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>VS</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.362204724409451</v>
+      </c>
+      <c r="F18" t="n">
+        <v>102.3622047244095</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GMM</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>RDZN</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-3.286384976525814</v>
+      </c>
+      <c r="F20" t="n">
+        <v>96.71361502347419</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>VS</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.362204724409451</v>
+      </c>
+      <c r="F21" t="n">
+        <v>102.3622047244095</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>GMM</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>173.45</v>
+      </c>
+      <c r="D23" t="n">
+        <v>173.81</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.2075526088209937</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100.207552608821</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>173.45</v>
+      </c>
+      <c r="D24" t="n">
+        <v>173.81</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.2075526088209937</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100.207552608821</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>173.45</v>
+      </c>
+      <c r="D25" t="n">
+        <v>173.81</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.2075526088209937</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100.207552608821</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>173.45</v>
+      </c>
+      <c r="D26" t="n">
+        <v>173.81</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.2075526088209937</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100.207552608821</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>173.45</v>
+      </c>
+      <c r="D27" t="n">
+        <v>173.81</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2075526088209937</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100.207552608821</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>173.45</v>
+      </c>
+      <c r="D28" t="n">
+        <v>173.81</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.2075526088209937</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100.207552608821</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>173.45</v>
+      </c>
+      <c r="D29" t="n">
+        <v>173.81</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.2075526088209937</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100.207552608821</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>173.45</v>
+      </c>
+      <c r="D30" t="n">
+        <v>173.81</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.2075526088209937</v>
+      </c>
+      <c r="F30" t="n">
+        <v>100.207552608821</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>173.45</v>
+      </c>
+      <c r="D31" t="n">
+        <v>173.81</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.2075526088209937</v>
+      </c>
+      <c r="F31" t="n">
+        <v>100.207552608821</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>173.45</v>
+      </c>
+      <c r="D32" t="n">
+        <v>173.81</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.2075526088209937</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100.207552608821</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>173.45</v>
+      </c>
+      <c r="D33" t="n">
+        <v>173.81</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.2075526088209937</v>
+      </c>
+      <c r="F33" t="n">
+        <v>100.207552608821</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>173.45</v>
+      </c>
+      <c r="D34" t="n">
+        <v>173.81</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.2075526088209937</v>
+      </c>
+      <c r="F34" t="n">
+        <v>100.207552608821</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>173.45</v>
+      </c>
+      <c r="D35" t="n">
+        <v>173.81</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.2075526088209937</v>
+      </c>
+      <c r="F35" t="n">
+        <v>100.207552608821</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>173.45</v>
+      </c>
+      <c r="D36" t="n">
+        <v>173.81</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.2075526088209937</v>
+      </c>
+      <c r="F36" t="n">
+        <v>100.207552608821</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>173.45</v>
+      </c>
+      <c r="D37" t="n">
+        <v>173.81</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.2075526088209937</v>
+      </c>
+      <c r="F37" t="n">
+        <v>100.207552608821</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>173.45</v>
+      </c>
+      <c r="D38" t="n">
+        <v>173.81</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.2075526088209937</v>
+      </c>
+      <c r="F38" t="n">
+        <v>100.207552608821</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>173.45</v>
+      </c>
+      <c r="D39" t="n">
+        <v>173.81</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.2075526088209937</v>
+      </c>
+      <c r="F39" t="n">
+        <v>100.207552608821</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
